--- a/backend/src/excel_handler/files/LONG.xlsx
+++ b/backend/src/excel_handler/files/LONG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,14 +439,22 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -459,14 +467,20 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/backend/src/excel_handler/files/LONG.xlsx
+++ b/backend/src/excel_handler/files/LONG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -519,24 +489,6 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -562,24 +514,6 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -603,24 +537,6 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/backend/src/excel_handler/files/LONG.xlsx
+++ b/backend/src/excel_handler/files/LONG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -489,6 +519,24 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +562,24 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +603,24 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/backend/src/excel_handler/files/LONG.xlsx
+++ b/backend/src/excel_handler/files/LONG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -537,6 +607,48 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -580,6 +692,48 @@
       <c r="M3" t="n">
         <v>0</v>
       </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -621,6 +775,48 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0</v>
       </c>
     </row>
